--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2652.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2652.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8593529936209496</v>
+        <v>1.996515393257141</v>
       </c>
       <c r="B1">
-        <v>1.399072509072671</v>
+        <v>2.262944936752319</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.239951372146606</v>
       </c>
       <c r="D1">
-        <v>1.416815379337418</v>
+        <v>2.680375576019287</v>
       </c>
       <c r="E1">
-        <v>0.8461728350008697</v>
+        <v>1.520605802536011</v>
       </c>
     </row>
   </sheetData>
